--- a/scraper/top_remaining_spreadsheets_states/top_remaining_MI.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_MI.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Lucky Bucks</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>Loggin' Loot</t>
@@ -68,57 +68,51 @@
     <t>American Pride</t>
   </si>
   <si>
+    <t>Third and Won</t>
+  </si>
+  <si>
+    <t>Stampede Gold</t>
+  </si>
+  <si>
+    <t>Another Round</t>
+  </si>
+  <si>
+    <t>Top $pin$ Tripler</t>
+  </si>
+  <si>
+    <t>Super 8's</t>
+  </si>
+  <si>
+    <t>Cash Plow</t>
+  </si>
+  <si>
+    <t>Cash Cow</t>
+  </si>
+  <si>
+    <t>Championship Slots</t>
+  </si>
+  <si>
+    <t>Free Beer! (Tomorrow)</t>
+  </si>
+  <si>
+    <t>Diamond Doubler</t>
+  </si>
+  <si>
+    <t>5X The Cash</t>
+  </si>
+  <si>
+    <t>Club Keno</t>
+  </si>
+  <si>
+    <t>Beernado</t>
+  </si>
+  <si>
+    <t>Quick Cash</t>
+  </si>
+  <si>
     <t>Last Call</t>
   </si>
   <si>
-    <t>Third and Won</t>
-  </si>
-  <si>
-    <t>Stampede Gold</t>
-  </si>
-  <si>
-    <t>Another Round</t>
-  </si>
-  <si>
-    <t>Top $pin$ Tripler</t>
-  </si>
-  <si>
-    <t>Super 8's</t>
-  </si>
-  <si>
-    <t>Free Beer! (Tomorrow)</t>
-  </si>
-  <si>
-    <t>Cash Plow</t>
-  </si>
-  <si>
-    <t>Cash Cow</t>
-  </si>
-  <si>
-    <t>Championship Slots</t>
-  </si>
-  <si>
-    <t>Club Keno</t>
-  </si>
-  <si>
-    <t>Diamond Doubler</t>
-  </si>
-  <si>
-    <t>5X The Cash</t>
-  </si>
-  <si>
-    <t>Beernado</t>
-  </si>
-  <si>
-    <t>Quick Cash</t>
-  </si>
-  <si>
-    <t>Festive $50's</t>
-  </si>
-  <si>
-    <t>2019-02-06</t>
-  </si>
-  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
@@ -128,43 +122,49 @@
     <t>Winning Streak</t>
   </si>
   <si>
+    <t>Wild Cherry</t>
+  </si>
+  <si>
+    <t>Cashword</t>
+  </si>
+  <si>
     <t>Jumpin' Jack Cash</t>
   </si>
   <si>
     <t>2019-03-04</t>
   </si>
   <si>
-    <t>Wild Cherry</t>
-  </si>
-  <si>
-    <t>Cashword</t>
-  </si>
-  <si>
     <t>Win For Life</t>
   </si>
   <si>
+    <t>$15,000 Cash Explosion</t>
+  </si>
+  <si>
+    <t>Triple Winning 7's</t>
+  </si>
+  <si>
+    <t>Tax Free $50,000</t>
+  </si>
+  <si>
     <t>10X The Cash</t>
   </si>
   <si>
-    <t>$15,000 Cash Explosion</t>
-  </si>
-  <si>
-    <t>Tax Free $50,000</t>
-  </si>
-  <si>
-    <t>Triple Winning 7's</t>
-  </si>
-  <si>
     <t>Lucky 7's Doubler</t>
   </si>
   <si>
     <t>Quick Winnings</t>
   </si>
   <si>
+    <t>Diamonds and Gold</t>
+  </si>
+  <si>
     <t>$1,000,000 Cash Blowout</t>
   </si>
   <si>
-    <t>Diamonds and Gold</t>
+    <t>Sin City Slots</t>
+  </si>
+  <si>
+    <t>Sizzlin' Wild Time</t>
   </si>
   <si>
     <t>Big Bucks</t>
@@ -173,15 +173,6 @@
     <t>2019-02-25</t>
   </si>
   <si>
-    <t>Sin City Slots</t>
-  </si>
-  <si>
-    <t>Sizzlin' Wild Time</t>
-  </si>
-  <si>
-    <t>Holiday Lucky Times 12</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
@@ -212,12 +203,12 @@
     <t>Quick Riches</t>
   </si>
   <si>
+    <t>$2,000,000 Cash Roll</t>
+  </si>
+  <si>
     <t>$30,000 Money Maker</t>
   </si>
   <si>
-    <t>$2,000,000 Cash Roll</t>
-  </si>
-  <si>
     <t>Casino Riches</t>
   </si>
   <si>
@@ -227,30 +218,24 @@
     <t>Super Bingo</t>
   </si>
   <si>
+    <t>20X The Cash</t>
+  </si>
+  <si>
+    <t>25th Anniversary Wild Time</t>
+  </si>
+  <si>
+    <t>Full of 500's</t>
+  </si>
+  <si>
+    <t>Cash Flurries</t>
+  </si>
+  <si>
     <t>White Ice 7's</t>
   </si>
   <si>
-    <t>20X The Cash</t>
-  </si>
-  <si>
-    <t>25th Anniversary Wild Time</t>
-  </si>
-  <si>
-    <t>Full of 500's</t>
-  </si>
-  <si>
-    <t>Cash Flurries</t>
-  </si>
-  <si>
     <t>Double Bonus Cashword</t>
   </si>
   <si>
-    <t>Bring on the Bens</t>
-  </si>
-  <si>
-    <t>2019-02-05</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
@@ -272,12 +257,12 @@
     <t>Royal Win</t>
   </si>
   <si>
+    <t>Cash</t>
+  </si>
+  <si>
     <t>Quick Million</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
     <t>Tax Free $1,000,000</t>
   </si>
   <si>
@@ -288,9 +273,6 @@
   </si>
   <si>
     <t>Triple Bonus Cashword</t>
-  </si>
-  <si>
-    <t>Holiday Dazzle</t>
   </si>
   <si>
     <t>Platinum Wild Time</t>
@@ -683,7 +665,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,10 +844,10 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>876</v>
+        <v>518</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -882,7 +864,7 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -902,7 +884,7 @@
         <v>19</v>
       </c>
       <c r="D11">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -922,7 +904,7 @@
         <v>20</v>
       </c>
       <c r="D12">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -942,7 +924,7 @@
         <v>21</v>
       </c>
       <c r="D13">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -962,7 +944,7 @@
         <v>22</v>
       </c>
       <c r="D14">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -982,10 +964,10 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <v>551</v>
+        <v>271</v>
       </c>
       <c r="E15">
-        <v>1959</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -1002,10 +984,10 @@
         <v>24</v>
       </c>
       <c r="D16">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1022,10 +1004,10 @@
         <v>25</v>
       </c>
       <c r="D17">
-        <v>271</v>
+        <v>551</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1951</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1042,7 +1024,7 @@
         <v>26</v>
       </c>
       <c r="D18">
-        <v>537</v>
+        <v>273</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1062,10 +1044,10 @@
         <v>27</v>
       </c>
       <c r="D19">
-        <v>513</v>
+        <v>286</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1082,10 +1064,10 @@
         <v>28</v>
       </c>
       <c r="D20">
-        <v>273</v>
+        <v>513</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1102,10 +1084,10 @@
         <v>29</v>
       </c>
       <c r="D21">
-        <v>286</v>
+        <v>539</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1122,7 +1104,7 @@
         <v>30</v>
       </c>
       <c r="D22">
-        <v>539</v>
+        <v>875</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1142,7 +1124,7 @@
         <v>31</v>
       </c>
       <c r="D23">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1156,19 +1138,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1176,16 +1158,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
       <c r="D25">
-        <v>261</v>
+        <v>877</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1196,16 +1178,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>877</v>
+        <v>522</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1216,19 +1198,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>520</v>
+        <v>238</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1236,19 +1218,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D28">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1256,16 +1238,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1276,13 +1258,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30">
-        <v>260</v>
+        <v>541</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1296,16 +1278,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1316,16 +1298,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32">
-        <v>541</v>
+        <v>248</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1336,16 +1318,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1356,16 +1338,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34">
-        <v>293</v>
+        <v>211</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1376,16 +1358,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1396,16 +1378,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1416,10 +1398,10 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -1436,16 +1418,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38">
-        <v>309</v>
+        <v>530</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1456,19 +1438,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1476,19 +1458,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D40">
-        <v>530</v>
+        <v>218</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1496,16 +1478,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
       </c>
       <c r="D41">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1516,19 +1498,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
       </c>
       <c r="D42">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1542,7 +1524,7 @@
         <v>56</v>
       </c>
       <c r="D43">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1562,10 +1544,10 @@
         <v>57</v>
       </c>
       <c r="D44">
-        <v>219</v>
+        <v>507</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1576,13 +1558,13 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
         <v>58</v>
       </c>
-      <c r="C45" t="s">
-        <v>59</v>
-      </c>
       <c r="D45">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -1596,16 +1578,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46">
-        <v>507</v>
+        <v>249</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1616,13 +1598,13 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -1636,16 +1618,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1656,16 +1638,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D49">
-        <v>251</v>
+        <v>527</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1676,13 +1658,13 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D50">
-        <v>258</v>
+        <v>878</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1696,13 +1678,13 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51">
-        <v>878</v>
+        <v>264</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -1716,13 +1698,13 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D52">
-        <v>527</v>
+        <v>262</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1736,16 +1718,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="C53">
+        <v>777</v>
       </c>
       <c r="D53">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1756,16 +1738,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D54">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1776,13 +1758,13 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D55">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -1796,16 +1778,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56">
-        <v>777</v>
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
       </c>
       <c r="D56">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1816,19 +1798,19 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1836,16 +1818,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D58">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1856,19 +1838,19 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D59">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1876,16 +1858,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1896,16 +1878,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
         <v>74</v>
       </c>
       <c r="D61">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1916,16 +1898,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
         <v>75</v>
       </c>
       <c r="D62">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1936,19 +1918,19 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
       </c>
       <c r="D63">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E63">
         <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1956,13 +1938,13 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D64">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -1976,16 +1958,16 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" t="s">
         <v>78</v>
       </c>
-      <c r="C65" t="s">
-        <v>80</v>
-      </c>
       <c r="D65">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -1996,13 +1978,13 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D66">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -2016,13 +1998,13 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D67">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -2036,16 +2018,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D68">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -2056,13 +2038,13 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D69">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -2076,13 +2058,13 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D70">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -2096,16 +2078,16 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D71">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2116,13 +2098,13 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D72">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -2136,16 +2118,16 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" t="s">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="C73">
+        <v>777</v>
       </c>
       <c r="D73">
-        <v>208</v>
+        <v>526</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2156,19 +2138,19 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D74">
-        <v>297</v>
+        <v>223</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2176,16 +2158,16 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75">
-        <v>777</v>
+        <v>88</v>
+      </c>
+      <c r="C75" t="s">
+        <v>89</v>
       </c>
       <c r="D75">
-        <v>526</v>
+        <v>204</v>
       </c>
       <c r="E75">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -2196,16 +2178,16 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
         <v>90</v>
       </c>
       <c r="D76">
-        <v>284</v>
+        <v>772</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -2216,19 +2198,19 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
         <v>91</v>
       </c>
       <c r="D77">
-        <v>277</v>
+        <v>795</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2236,19 +2218,19 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
         <v>92</v>
       </c>
       <c r="D78">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F78" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2256,13 +2238,13 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D79">
-        <v>204</v>
+        <v>263</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -2276,16 +2258,16 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" t="s">
         <v>94</v>
       </c>
-      <c r="C80" t="s">
-        <v>96</v>
-      </c>
       <c r="D80">
-        <v>772</v>
+        <v>233</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
@@ -2296,13 +2278,13 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D81">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2316,13 +2298,13 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D82">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -2336,13 +2318,13 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D83">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2356,16 +2338,16 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D84">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>9</v>
@@ -2376,16 +2358,16 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D85">
-        <v>779</v>
+        <v>237</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>9</v>
@@ -2396,16 +2378,16 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D86">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86" t="s">
         <v>9</v>
@@ -2416,13 +2398,13 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D87">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -2436,98 +2418,18 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D88">
-        <v>230</v>
+        <v>776</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" t="s">
-        <v>104</v>
-      </c>
-      <c r="C89" t="s">
-        <v>106</v>
-      </c>
-      <c r="D89">
-        <v>237</v>
-      </c>
-      <c r="E89">
-        <v>2</v>
-      </c>
-      <c r="F89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" t="s">
-        <v>104</v>
-      </c>
-      <c r="C90" t="s">
-        <v>107</v>
-      </c>
-      <c r="D90">
-        <v>282</v>
-      </c>
-      <c r="E90">
-        <v>3</v>
-      </c>
-      <c r="F90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" t="s">
-        <v>104</v>
-      </c>
-      <c r="C91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D91">
-        <v>236</v>
-      </c>
-      <c r="E91">
-        <v>2</v>
-      </c>
-      <c r="F91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" t="s">
-        <v>104</v>
-      </c>
-      <c r="C92" t="s">
-        <v>109</v>
-      </c>
-      <c r="D92">
-        <v>776</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_MI.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_MI.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>STATE</t>
   </si>
@@ -41,76 +41,85 @@
     <t>$0.50 Games</t>
   </si>
   <si>
+    <t>Blazin' Bucks</t>
+  </si>
+  <si>
+    <t>2019-04-11</t>
+  </si>
+  <si>
     <t>Lucky Bucks</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>The Rock Show</t>
+  </si>
+  <si>
+    <t>Cash Flow</t>
   </si>
   <si>
     <t>Loggin' Loot</t>
   </si>
   <si>
-    <t>Blazin' Bucks</t>
-  </si>
-  <si>
-    <t>Cash Flow</t>
-  </si>
-  <si>
-    <t>The Rock Show</t>
-  </si>
-  <si>
     <t>$1.00 Games</t>
   </si>
   <si>
     <t>Cloud 9</t>
   </si>
   <si>
+    <t>2019-04-08</t>
+  </si>
+  <si>
     <t>American Pride</t>
   </si>
   <si>
+    <t>Top $pin$ Tripler</t>
+  </si>
+  <si>
     <t>Third and Won</t>
   </si>
   <si>
+    <t>Cash Plow</t>
+  </si>
+  <si>
+    <t>Another Round</t>
+  </si>
+  <si>
+    <t>Super 8's</t>
+  </si>
+  <si>
+    <t>Beernado</t>
+  </si>
+  <si>
+    <t>Championship Slots</t>
+  </si>
+  <si>
+    <t>5X The Cash</t>
+  </si>
+  <si>
+    <t>Big League Brew</t>
+  </si>
+  <si>
+    <t>Free Beer! (Tomorrow)</t>
+  </si>
+  <si>
+    <t>Diamond Doubler</t>
+  </si>
+  <si>
+    <t>Club Keno</t>
+  </si>
+  <si>
+    <t>Cash Cow</t>
+  </si>
+  <si>
+    <t>Quick Cash</t>
+  </si>
+  <si>
+    <t>Last Call</t>
+  </si>
+  <si>
     <t>Stampede Gold</t>
   </si>
   <si>
-    <t>Another Round</t>
-  </si>
-  <si>
-    <t>Top $pin$ Tripler</t>
-  </si>
-  <si>
-    <t>Super 8's</t>
-  </si>
-  <si>
-    <t>Cash Plow</t>
-  </si>
-  <si>
-    <t>Cash Cow</t>
-  </si>
-  <si>
-    <t>Championship Slots</t>
-  </si>
-  <si>
-    <t>Free Beer! (Tomorrow)</t>
-  </si>
-  <si>
-    <t>Diamond Doubler</t>
-  </si>
-  <si>
-    <t>5X The Cash</t>
-  </si>
-  <si>
-    <t>Club Keno</t>
-  </si>
-  <si>
-    <t>Beernado</t>
-  </si>
-  <si>
-    <t>Quick Cash</t>
-  </si>
-  <si>
-    <t>Last Call</t>
+    <t>2019-03-18</t>
   </si>
   <si>
     <t>$2.00 Games</t>
@@ -122,55 +131,52 @@
     <t>Winning Streak</t>
   </si>
   <si>
+    <t>Cashword</t>
+  </si>
+  <si>
     <t>Wild Cherry</t>
   </si>
   <si>
-    <t>Cashword</t>
-  </si>
-  <si>
-    <t>Jumpin' Jack Cash</t>
-  </si>
-  <si>
-    <t>2019-03-04</t>
+    <t>$15,000 Cash Explosion</t>
   </si>
   <si>
     <t>Win For Life</t>
   </si>
   <si>
-    <t>$15,000 Cash Explosion</t>
+    <t>Tax Free $50,000</t>
+  </si>
+  <si>
+    <t>10X The Cash</t>
+  </si>
+  <si>
+    <t>Diamonds and Gold</t>
+  </si>
+  <si>
+    <t>$30,000 Wild Time</t>
+  </si>
+  <si>
+    <t>Red Hot 7's</t>
+  </si>
+  <si>
+    <t>$1,000,000 Cash Blowout</t>
+  </si>
+  <si>
+    <t>Quick Winnings</t>
+  </si>
+  <si>
+    <t>Sizzlin' Wild Time</t>
+  </si>
+  <si>
+    <t>Sin City Slots</t>
   </si>
   <si>
     <t>Triple Winning 7's</t>
   </si>
   <si>
-    <t>Tax Free $50,000</t>
-  </si>
-  <si>
-    <t>10X The Cash</t>
-  </si>
-  <si>
     <t>Lucky 7's Doubler</t>
   </si>
   <si>
-    <t>Quick Winnings</t>
-  </si>
-  <si>
-    <t>Diamonds and Gold</t>
-  </si>
-  <si>
-    <t>$1,000,000 Cash Blowout</t>
-  </si>
-  <si>
-    <t>Sin City Slots</t>
-  </si>
-  <si>
-    <t>Sizzlin' Wild Time</t>
-  </si>
-  <si>
-    <t>Big Bucks</t>
-  </si>
-  <si>
-    <t>2019-02-25</t>
+    <t>2019-03-24</t>
   </si>
   <si>
     <t>$3.00 Games</t>
@@ -188,54 +194,51 @@
     <t>Loaded</t>
   </si>
   <si>
+    <t>Platinum 7s</t>
+  </si>
+  <si>
+    <t>Tax Free $500,000</t>
+  </si>
+  <si>
+    <t>Poker Multiplier</t>
+  </si>
+  <si>
+    <t>Instant Keno</t>
+  </si>
+  <si>
+    <t>Quick Riches</t>
+  </si>
+  <si>
+    <t>$30,000 Money Maker</t>
+  </si>
+  <si>
+    <t>25th Anniversary Wild Time</t>
+  </si>
+  <si>
+    <t>Super Bingo</t>
+  </si>
+  <si>
+    <t>Casino Riches</t>
+  </si>
+  <si>
+    <t>Double Bonus Cashword</t>
+  </si>
+  <si>
+    <t>20X The Cash</t>
+  </si>
+  <si>
+    <t>Full of 500's</t>
+  </si>
+  <si>
+    <t>Cash Flurries</t>
+  </si>
+  <si>
     <t>Brews on First</t>
   </si>
   <si>
-    <t>Platinum 7s</t>
-  </si>
-  <si>
-    <t>Tax Free $500,000</t>
-  </si>
-  <si>
-    <t>Instant Keno</t>
-  </si>
-  <si>
-    <t>Quick Riches</t>
-  </si>
-  <si>
     <t>$2,000,000 Cash Roll</t>
   </si>
   <si>
-    <t>$30,000 Money Maker</t>
-  </si>
-  <si>
-    <t>Casino Riches</t>
-  </si>
-  <si>
-    <t>Poker Multiplier</t>
-  </si>
-  <si>
-    <t>Super Bingo</t>
-  </si>
-  <si>
-    <t>20X The Cash</t>
-  </si>
-  <si>
-    <t>25th Anniversary Wild Time</t>
-  </si>
-  <si>
-    <t>Full of 500's</t>
-  </si>
-  <si>
-    <t>Cash Flurries</t>
-  </si>
-  <si>
-    <t>White Ice 7's</t>
-  </si>
-  <si>
-    <t>Double Bonus Cashword</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
@@ -245,42 +248,39 @@
     <t>Casino Millions</t>
   </si>
   <si>
+    <t>Golden Ticket II</t>
+  </si>
+  <si>
     <t>Classic Black</t>
   </si>
   <si>
-    <t>Golden Ticket II</t>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Quick Million</t>
+  </si>
+  <si>
+    <t>Royal Win</t>
+  </si>
+  <si>
+    <t>$500,000 Wild Time</t>
+  </si>
+  <si>
+    <t>Tax Free $1,000,000</t>
+  </si>
+  <si>
+    <t>$1,000,000 Gems</t>
+  </si>
+  <si>
+    <t>Super Triple 7's</t>
+  </si>
+  <si>
+    <t>Triple Bonus Cashword</t>
   </si>
   <si>
     <t>50X The Cash</t>
   </si>
   <si>
-    <t>Royal Win</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Quick Million</t>
-  </si>
-  <si>
-    <t>Tax Free $1,000,000</t>
-  </si>
-  <si>
-    <t>$1,000,000 Gems</t>
-  </si>
-  <si>
-    <t>$500,000 Wild Time</t>
-  </si>
-  <si>
-    <t>Triple Bonus Cashword</t>
-  </si>
-  <si>
-    <t>Platinum Wild Time</t>
-  </si>
-  <si>
-    <t>2019-02-17</t>
-  </si>
-  <si>
     <t>$20.00 Games</t>
   </si>
   <si>
@@ -302,15 +302,18 @@
     <t>Diamond Dazzler</t>
   </si>
   <si>
+    <t>$2,000,000 Jackpot</t>
+  </si>
+  <si>
     <t>Hot Fortune</t>
   </si>
   <si>
-    <t>$2,000,000 Jackpot</t>
-  </si>
-  <si>
     <t>100X The Cash</t>
   </si>
   <si>
+    <t>Millionaire Maker</t>
+  </si>
+  <si>
     <t>$30.00 Games</t>
   </si>
   <si>
@@ -320,13 +323,16 @@
     <t>$150,000,000 Payout</t>
   </si>
   <si>
+    <t>$4,000,000 Winner</t>
+  </si>
+  <si>
     <t>Royal Millions</t>
   </si>
   <si>
-    <t>$4,000,000 Winner</t>
-  </si>
-  <si>
     <t>Max Money</t>
+  </si>
+  <si>
+    <t>2019-03-17</t>
   </si>
 </sst>
 </file>
@@ -665,7 +671,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -724,10 +730,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -744,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -784,7 +790,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -810,7 +816,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,7 +827,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>504</v>
@@ -841,10 +847,10 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -861,10 +867,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -881,10 +887,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -901,10 +907,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -921,7 +927,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>511</v>
@@ -941,10 +947,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -961,13 +967,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>271</v>
+        <v>537</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -981,13 +987,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>537</v>
+        <v>286</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1001,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E17">
-        <v>1951</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1021,13 +1027,13 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>273</v>
+        <v>551</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1875</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -1041,13 +1047,13 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1061,7 +1067,7 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20">
         <v>513</v>
@@ -1081,13 +1087,13 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>539</v>
+        <v>271</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1101,7 +1107,7 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>875</v>
@@ -1121,7 +1127,7 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>876</v>
@@ -1138,19 +1144,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
       </c>
       <c r="D24">
-        <v>261</v>
+        <v>509</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1158,16 +1164,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D25">
-        <v>877</v>
+        <v>261</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1178,16 +1184,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D26">
-        <v>522</v>
+        <v>877</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1198,10 +1204,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <v>238</v>
@@ -1218,19 +1224,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D28">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1238,13 +1244,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>260</v>
+        <v>541</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1258,13 +1264,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D30">
-        <v>541</v>
+        <v>260</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1278,13 +1284,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -1298,16 +1304,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1318,16 +1324,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D33">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1338,16 +1344,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D34">
-        <v>211</v>
+        <v>294</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1358,16 +1364,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35">
-        <v>257</v>
+        <v>531</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1378,16 +1384,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36">
-        <v>309</v>
+        <v>525</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1398,16 +1404,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D37">
-        <v>525</v>
+        <v>257</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1418,13 +1424,13 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D38">
-        <v>530</v>
+        <v>246</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1438,13 +1444,13 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D39">
-        <v>246</v>
+        <v>530</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1458,19 +1464,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1478,19 +1484,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
         <v>52</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41">
+        <v>211</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
         <v>53</v>
-      </c>
-      <c r="D41">
-        <v>239</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1498,16 +1504,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D42">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1518,16 +1524,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
       </c>
       <c r="D43">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1538,16 +1544,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44">
-        <v>507</v>
+        <v>253</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1558,10 +1564,10 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45">
         <v>255</v>
@@ -1578,10 +1584,10 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46">
         <v>249</v>
@@ -1598,16 +1604,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1618,13 +1624,13 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D48">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -1638,16 +1644,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D49">
-        <v>527</v>
+        <v>258</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1658,10 +1664,10 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D50">
         <v>878</v>
@@ -1678,16 +1684,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D51">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1698,16 +1704,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D52">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1718,16 +1724,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53">
-        <v>777</v>
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
       </c>
       <c r="D53">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1738,16 +1744,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D54">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1758,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D55">
         <v>288</v>
@@ -1778,16 +1784,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D56">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1798,13 +1804,13 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="C57">
+        <v>777</v>
       </c>
       <c r="D57">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -1818,10 +1824,10 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D58">
         <v>283</v>
@@ -1838,19 +1844,19 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D59">
-        <v>220</v>
+        <v>507</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1858,13 +1864,13 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D60">
-        <v>222</v>
+        <v>527</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1878,16 +1884,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D61">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1898,13 +1904,13 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
         <v>75</v>
       </c>
       <c r="D62">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -1918,13 +1924,13 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
       </c>
       <c r="D63">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -1938,7 +1944,7 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
         <v>77</v>
@@ -1958,16 +1964,16 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
         <v>78</v>
       </c>
       <c r="D65">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -1978,13 +1984,13 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
         <v>79</v>
       </c>
       <c r="D66">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -1998,13 +2004,13 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
         <v>80</v>
       </c>
       <c r="D67">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -2018,13 +2024,13 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
         <v>81</v>
       </c>
       <c r="D68">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -2038,16 +2044,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
         <v>82</v>
       </c>
       <c r="D69">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -2058,13 +2064,13 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
         <v>83</v>
       </c>
       <c r="D70">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -2078,16 +2084,16 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
         <v>84</v>
       </c>
       <c r="D71">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2098,16 +2104,16 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
       </c>
       <c r="D72">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
@@ -2118,16 +2124,16 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73">
-        <v>777</v>
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>86</v>
       </c>
       <c r="D73">
-        <v>526</v>
+        <v>284</v>
       </c>
       <c r="E73">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2138,19 +2144,19 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D74">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2158,16 +2164,16 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
-      </c>
-      <c r="C75" t="s">
-        <v>89</v>
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>777</v>
       </c>
       <c r="D75">
-        <v>204</v>
+        <v>526</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -2181,13 +2187,13 @@
         <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D76">
-        <v>772</v>
+        <v>204</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -2201,10 +2207,10 @@
         <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D77">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2221,13 +2227,13 @@
         <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78">
-        <v>209</v>
+        <v>795</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>9</v>
@@ -2241,10 +2247,10 @@
         <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D79">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -2261,10 +2267,10 @@
         <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D80">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -2281,13 +2287,13 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D81">
-        <v>779</v>
+        <v>233</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
@@ -2301,7 +2307,7 @@
         <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D82">
         <v>265</v>
@@ -2321,13 +2327,13 @@
         <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D83">
-        <v>285</v>
+        <v>779</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
@@ -2338,16 +2344,16 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D84">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
         <v>9</v>
@@ -2358,16 +2364,16 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" t="s">
         <v>98</v>
       </c>
-      <c r="C85" t="s">
-        <v>100</v>
-      </c>
       <c r="D85">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
         <v>9</v>
@@ -2378,16 +2384,16 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D86">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
         <v>9</v>
@@ -2398,13 +2404,13 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D87">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -2418,19 +2424,59 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C88" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88">
+        <v>236</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" t="s">
         <v>103</v>
       </c>
-      <c r="D88">
+      <c r="D89">
+        <v>282</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90">
         <v>776</v>
       </c>
-      <c r="E88">
+      <c r="E90">
         <v>0</v>
       </c>
-      <c r="F88" t="s">
-        <v>9</v>
+      <c r="F90" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
